--- a/Code/Results/Cases/Case_0_154/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_154/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1422020754701094</v>
+        <v>0.3009517224809315</v>
       </c>
       <c r="D2">
-        <v>0.006497013100858595</v>
+        <v>0.03176124224049381</v>
       </c>
       <c r="E2">
-        <v>0.02175374892253945</v>
+        <v>0.1042256271206337</v>
       </c>
       <c r="F2">
-        <v>1.637120404627183</v>
+        <v>1.312523548925626</v>
       </c>
       <c r="G2">
-        <v>0.0007570934150192502</v>
+        <v>0.002443516547849659</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.03193201319829697</v>
+        <v>0.08654123832794625</v>
       </c>
       <c r="M2">
-        <v>3.351595170538133</v>
+        <v>1.424909482253568</v>
       </c>
       <c r="N2">
-        <v>3.725652167641272</v>
+        <v>1.715880661406516</v>
       </c>
       <c r="O2">
-        <v>5.451097728494801</v>
+        <v>4.681263349677351</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1341938122751429</v>
+        <v>0.3026857630957807</v>
       </c>
       <c r="D3">
-        <v>0.007021033753396466</v>
+        <v>0.03226518995492889</v>
       </c>
       <c r="E3">
-        <v>0.02415979225687348</v>
+        <v>0.1062488318439567</v>
       </c>
       <c r="F3">
-        <v>1.43856974131927</v>
+        <v>1.275640392754909</v>
       </c>
       <c r="G3">
-        <v>0.0007647907822911724</v>
+        <v>0.002448563445509227</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.03307536957950497</v>
+        <v>0.08754708226249974</v>
       </c>
       <c r="M3">
-        <v>2.917983611698318</v>
+        <v>1.293531915880166</v>
       </c>
       <c r="N3">
-        <v>3.326969299905613</v>
+        <v>1.585537508725679</v>
       </c>
       <c r="O3">
-        <v>4.802414496495089</v>
+        <v>4.567228093055689</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1297714404983878</v>
+        <v>0.3039564342589927</v>
       </c>
       <c r="D4">
-        <v>0.007386149937721243</v>
+        <v>0.03259250525759683</v>
       </c>
       <c r="E4">
-        <v>0.02577961141303176</v>
+        <v>0.1075626156684795</v>
       </c>
       <c r="F4">
-        <v>1.32022911882602</v>
+        <v>1.253970336737254</v>
       </c>
       <c r="G4">
-        <v>0.0007696483600645475</v>
+        <v>0.002451826644926911</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.03384449644003595</v>
+        <v>0.0882098158246869</v>
       </c>
       <c r="M4">
-        <v>2.652404067973876</v>
+        <v>1.212821027657299</v>
       </c>
       <c r="N4">
-        <v>3.083078618692298</v>
+        <v>1.505756825956809</v>
       </c>
       <c r="O4">
-        <v>4.416617888996996</v>
+        <v>4.500710647842254</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1280836606634352</v>
+        <v>0.3045258485037436</v>
       </c>
       <c r="D5">
-        <v>0.007544919038537046</v>
+        <v>0.03273037043304505</v>
       </c>
       <c r="E5">
-        <v>0.02647344730614565</v>
+        <v>0.1081159277367525</v>
       </c>
       <c r="F5">
-        <v>1.27280309663854</v>
+        <v>1.245383634849162</v>
       </c>
       <c r="G5">
-        <v>0.0007716623309745026</v>
+        <v>0.002453197902038267</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.03417436589404232</v>
+        <v>0.08849124951990106</v>
       </c>
       <c r="M5">
-        <v>2.544295184704552</v>
+        <v>1.179921701756399</v>
       </c>
       <c r="N5">
-        <v>2.983892127060074</v>
+        <v>1.473312265058979</v>
       </c>
       <c r="O5">
-        <v>4.262203017095771</v>
+        <v>4.474479253443064</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1278100349088902</v>
+        <v>0.3046235107406545</v>
       </c>
       <c r="D6">
-        <v>0.007571860114339302</v>
+        <v>0.03275353302463913</v>
       </c>
       <c r="E6">
-        <v>0.02659063817308693</v>
+        <v>0.1082088864720347</v>
       </c>
       <c r="F6">
-        <v>1.264973538809542</v>
+        <v>1.243972514595285</v>
       </c>
       <c r="G6">
-        <v>0.0007719988710635486</v>
+        <v>0.002453428107490555</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.0342301216394354</v>
+        <v>0.08853866814606448</v>
       </c>
       <c r="M6">
-        <v>2.526349513658417</v>
+        <v>1.174458316800497</v>
       </c>
       <c r="N6">
-        <v>2.967433714742782</v>
+        <v>1.467929010128586</v>
       </c>
       <c r="O6">
-        <v>4.236722198267046</v>
+        <v>4.47017624552592</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1297482281276672</v>
+        <v>0.3039639048753031</v>
       </c>
       <c r="D7">
-        <v>0.007388251892605169</v>
+        <v>0.03259434643324077</v>
       </c>
       <c r="E7">
-        <v>0.0257888347396058</v>
+        <v>0.1075700052819895</v>
       </c>
       <c r="F7">
-        <v>1.319586405940186</v>
+        <v>1.253853547413485</v>
       </c>
       <c r="G7">
-        <v>0.0007696753797447197</v>
+        <v>0.002451844970105421</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.03384887913947843</v>
+        <v>0.08821356530779667</v>
       </c>
       <c r="M7">
-        <v>2.650945661370329</v>
+        <v>1.212377369270399</v>
       </c>
       <c r="N7">
-        <v>3.081740173730452</v>
+        <v>1.505318992175035</v>
       </c>
       <c r="O7">
-        <v>4.414524489632754</v>
+        <v>4.500353346213558</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.139331860051314</v>
+        <v>0.3015067595107155</v>
       </c>
       <c r="D8">
-        <v>0.006668109376214204</v>
+        <v>0.03193128029298897</v>
       </c>
       <c r="E8">
-        <v>0.02255247549297268</v>
+        <v>0.1049083515165012</v>
       </c>
       <c r="F8">
-        <v>1.567856895501635</v>
+        <v>1.299602680159026</v>
       </c>
       <c r="G8">
-        <v>0.0007597211031419304</v>
+        <v>0.002445222685382505</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.03231204821579325</v>
+        <v>0.08687869213064658</v>
       </c>
       <c r="M8">
-        <v>3.20191778141303</v>
+        <v>1.379621020207892</v>
       </c>
       <c r="N8">
-        <v>3.58798250531234</v>
+        <v>1.670888512148537</v>
       </c>
       <c r="O8">
-        <v>5.224622817458737</v>
+        <v>4.641214200906461</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1625471683962871</v>
+        <v>0.2983311481018234</v>
       </c>
       <c r="D9">
-        <v>0.005647049938662718</v>
+        <v>0.03077370177798144</v>
       </c>
       <c r="E9">
-        <v>0.01743863705728632</v>
+        <v>0.1002586407527257</v>
       </c>
       <c r="F9">
-        <v>2.087986800584233</v>
+        <v>1.397137411490888</v>
       </c>
       <c r="G9">
-        <v>0.0007411717436316412</v>
+        <v>0.002433534268498474</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.02985163899619891</v>
+        <v>0.08461860541090616</v>
       </c>
       <c r="M9">
-        <v>4.290155381901883</v>
+        <v>1.707151716691129</v>
       </c>
       <c r="N9">
-        <v>4.589241829502726</v>
+        <v>1.997413350700583</v>
       </c>
       <c r="O9">
-        <v>6.929474746518849</v>
+        <v>4.945477485175161</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1830663964302914</v>
+        <v>0.297011828438059</v>
       </c>
       <c r="D10">
-        <v>0.005210721457611811</v>
+        <v>0.03001123383818971</v>
       </c>
       <c r="E10">
-        <v>0.01458869238849658</v>
+        <v>0.09719282262930218</v>
       </c>
       <c r="F10">
-        <v>2.498124216506369</v>
+        <v>1.473676010358815</v>
       </c>
       <c r="G10">
-        <v>0.0007280246381694555</v>
+        <v>0.002425728968258126</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.02841293972737091</v>
+        <v>0.08317534049809794</v>
       </c>
       <c r="M10">
-        <v>5.09855830654385</v>
+        <v>1.947441446484419</v>
       </c>
       <c r="N10">
-        <v>5.332250594791844</v>
+        <v>2.238268496456499</v>
       </c>
       <c r="O10">
-        <v>8.279581920341059</v>
+        <v>5.186501659324961</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1933486211870417</v>
+        <v>0.2966344735041275</v>
       </c>
       <c r="D11">
-        <v>0.005100603327418796</v>
+        <v>0.02968370105606866</v>
       </c>
       <c r="E11">
-        <v>0.01352841032685603</v>
+        <v>0.09587481267580866</v>
       </c>
       <c r="F11">
-        <v>2.692770960807707</v>
+        <v>1.509579998797705</v>
       </c>
       <c r="G11">
-        <v>0.0007221198614446655</v>
+        <v>0.002422346049547026</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.02784641669434151</v>
+        <v>0.08256577186332947</v>
       </c>
       <c r="M11">
-        <v>5.469341458106868</v>
+        <v>2.056664510312544</v>
       </c>
       <c r="N11">
-        <v>5.672425573069347</v>
+        <v>2.348014863582193</v>
       </c>
       <c r="O11">
-        <v>8.92183686800297</v>
+        <v>5.300032853834864</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.197397249678346</v>
+        <v>0.2965238381149504</v>
       </c>
       <c r="D12">
-        <v>0.005073639091225601</v>
+        <v>0.02956247077993979</v>
       </c>
       <c r="E12">
-        <v>0.01316460700436561</v>
+        <v>0.09538679562003249</v>
       </c>
       <c r="F12">
-        <v>2.767830461199111</v>
+        <v>1.523333962904474</v>
       </c>
       <c r="G12">
-        <v>0.0007198920949042513</v>
+        <v>0.002421089001131804</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.02764527349357593</v>
+        <v>0.0823416885697057</v>
       </c>
       <c r="M12">
-        <v>5.610289616043673</v>
+        <v>2.098010279931231</v>
       </c>
       <c r="N12">
-        <v>5.801604787941301</v>
+        <v>2.389595668641221</v>
       </c>
       <c r="O12">
-        <v>9.169742542462757</v>
+        <v>5.343589814317227</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1965180901029697</v>
+        <v>0.2965462270790766</v>
       </c>
       <c r="D13">
-        <v>0.005078755153395065</v>
+        <v>0.02958845504452512</v>
       </c>
       <c r="E13">
-        <v>0.01324121739885165</v>
+        <v>0.09549140481865859</v>
       </c>
       <c r="F13">
-        <v>2.751601669401737</v>
+        <v>1.520364750423852</v>
       </c>
       <c r="G13">
-        <v>0.0007203715638373949</v>
+        <v>0.002421358664249621</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.02768798529635674</v>
+        <v>0.08238964896779066</v>
       </c>
       <c r="M13">
-        <v>5.579908041634241</v>
+        <v>2.089106415451994</v>
       </c>
       <c r="N13">
-        <v>5.773766772849967</v>
+        <v>2.380639567054686</v>
       </c>
       <c r="O13">
-        <v>9.116131243878556</v>
+        <v>5.334183810566117</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1936784831012233</v>
+        <v>0.2966247236366826</v>
       </c>
       <c r="D14">
-        <v>0.005098076866401513</v>
+        <v>0.02967367114222341</v>
       </c>
       <c r="E14">
-        <v>0.01349770138777284</v>
+        <v>0.09583444070153835</v>
       </c>
       <c r="F14">
-        <v>2.698917895948028</v>
+        <v>1.510708371228247</v>
       </c>
       <c r="G14">
-        <v>0.0007219364330639762</v>
+        <v>0.00242224215116897</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.02782959572015287</v>
+        <v>0.08254720122075909</v>
       </c>
       <c r="M14">
-        <v>5.480925862208636</v>
+        <v>2.060066357884466</v>
       </c>
       <c r="N14">
-        <v>5.683045660805931</v>
+        <v>2.351435316567688</v>
       </c>
       <c r="O14">
-        <v>8.942133978544177</v>
+        <v>5.303604949551982</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1919599177532803</v>
+        <v>0.2966770129407195</v>
       </c>
       <c r="D15">
-        <v>0.005111896658281267</v>
+        <v>0.02972623365438487</v>
       </c>
       <c r="E15">
-        <v>0.01365983375766344</v>
+        <v>0.09604600552264619</v>
       </c>
       <c r="F15">
-        <v>2.6668295748334</v>
+        <v>1.504814174853919</v>
       </c>
       <c r="G15">
-        <v>0.000722895949108876</v>
+        <v>0.002422786432928008</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.0279181028075719</v>
+        <v>0.08264458495294491</v>
       </c>
       <c r="M15">
-        <v>5.420370173085473</v>
+        <v>2.042276511266351</v>
       </c>
       <c r="N15">
-        <v>5.627525105033499</v>
+        <v>2.333549658016523</v>
       </c>
       <c r="O15">
-        <v>8.836188464607915</v>
+        <v>5.28494829596832</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1824150467800791</v>
+        <v>0.2970409918124517</v>
       </c>
       <c r="D16">
-        <v>0.005219862269527198</v>
+        <v>0.03003302941846542</v>
       </c>
       <c r="E16">
-        <v>0.0146630467185247</v>
+        <v>0.09728050537591226</v>
       </c>
       <c r="F16">
-        <v>2.485581737257831</v>
+        <v>1.471351602948999</v>
       </c>
       <c r="G16">
-        <v>0.0007284118360111336</v>
+        <v>0.002425953414149558</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.02845179463359315</v>
+        <v>0.08321612185823568</v>
       </c>
       <c r="M16">
-        <v>5.074396404691925</v>
+        <v>1.940301537803919</v>
       </c>
       <c r="N16">
-        <v>5.310067252991303</v>
+        <v>2.231099623502757</v>
       </c>
       <c r="O16">
-        <v>8.238228575963262</v>
+        <v>5.179160883265524</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.176814934278184</v>
+        <v>0.2973215045507658</v>
       </c>
       <c r="D17">
-        <v>0.005310074088313854</v>
+        <v>0.03022620151733335</v>
       </c>
       <c r="E17">
-        <v>0.01534150340501306</v>
+        <v>0.09805750667384006</v>
       </c>
       <c r="F17">
-        <v>2.376587446238076</v>
+        <v>1.451102809326827</v>
       </c>
       <c r="G17">
-        <v>0.0007318132995095539</v>
+        <v>0.002427939124906749</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.02880222620825279</v>
+        <v>0.08357876770572048</v>
       </c>
       <c r="M17">
-        <v>4.862999769937772</v>
+        <v>1.877719554253787</v>
       </c>
       <c r="N17">
-        <v>5.115908037429165</v>
+        <v>2.168293358642188</v>
       </c>
       <c r="O17">
-        <v>7.879035143007798</v>
+        <v>5.115263852230669</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1736818768291783</v>
+        <v>0.2975038066678906</v>
       </c>
       <c r="D18">
-        <v>0.005370140622487085</v>
+        <v>0.03033912596727539</v>
       </c>
       <c r="E18">
-        <v>0.01575371552181082</v>
+        <v>0.09851162775894062</v>
       </c>
       <c r="F18">
-        <v>2.314643961073301</v>
+        <v>1.43955837325413</v>
       </c>
       <c r="G18">
-        <v>0.0007337770547624137</v>
+        <v>0.002429097050901593</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.02901201479939886</v>
+        <v>0.08379177445365471</v>
       </c>
       <c r="M18">
-        <v>4.741688779696389</v>
+        <v>1.841716097674691</v>
       </c>
       <c r="N18">
-        <v>5.004434395394753</v>
+        <v>2.132186028664592</v>
       </c>
       <c r="O18">
-        <v>7.675035825332031</v>
+        <v>5.07887756864767</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1726356560809563</v>
+        <v>0.2975691239988691</v>
       </c>
       <c r="D19">
-        <v>0.005391826196277094</v>
+        <v>0.03037767166581951</v>
       </c>
       <c r="E19">
-        <v>0.01589695178222961</v>
+        <v>0.09866662184936414</v>
       </c>
       <c r="F19">
-        <v>2.293793887771699</v>
+        <v>1.435667115500863</v>
       </c>
       <c r="G19">
-        <v>0.0007344432821395841</v>
+        <v>0.002429491821831295</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.02908443771900693</v>
+        <v>0.08386465470322335</v>
       </c>
       <c r="M19">
-        <v>4.700659914727936</v>
+        <v>1.829524649500655</v>
       </c>
       <c r="N19">
-        <v>4.966724545088482</v>
+        <v>2.1199637692539</v>
       </c>
       <c r="O19">
-        <v>7.606392877652297</v>
+        <v>5.066620406709774</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1774018424111006</v>
+        <v>0.2972894727617899</v>
       </c>
       <c r="D20">
-        <v>0.005299610705865376</v>
+        <v>0.03020544981398565</v>
       </c>
       <c r="E20">
-        <v>0.0152669797726146</v>
+        <v>0.09797404684582256</v>
       </c>
       <c r="F20">
-        <v>2.388111448879755</v>
+        <v>1.453247745134462</v>
       </c>
       <c r="G20">
-        <v>0.0007314504682875762</v>
+        <v>0.002427726108705832</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.0287640653135135</v>
+        <v>0.0835397057929228</v>
       </c>
       <c r="M20">
-        <v>4.885473746515743</v>
+        <v>1.884382353119918</v>
       </c>
       <c r="N20">
-        <v>5.136555411960842</v>
+        <v>2.174977442232091</v>
       </c>
       <c r="O20">
-        <v>7.916998383400994</v>
+        <v>5.122027918551339</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1945081781410494</v>
+        <v>0.2966007899762531</v>
       </c>
       <c r="D21">
-        <v>0.005091983913928289</v>
+        <v>0.02964856496435786</v>
       </c>
       <c r="E21">
-        <v>0.0134213105729728</v>
+        <v>0.09573338140600107</v>
       </c>
       <c r="F21">
-        <v>2.714354090735668</v>
+        <v>1.513540384705351</v>
       </c>
       <c r="G21">
-        <v>0.0007214765922828998</v>
+        <v>0.002421981999780416</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.02778763171539467</v>
+        <v>0.08250074125545126</v>
       </c>
       <c r="M21">
-        <v>5.509983749662609</v>
+        <v>2.068596541891282</v>
       </c>
       <c r="N21">
-        <v>5.70968239620845</v>
+        <v>2.360012738277874</v>
       </c>
       <c r="O21">
-        <v>8.99310800781484</v>
+        <v>5.312571315306798</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2066018923236612</v>
+        <v>0.2963388403708365</v>
       </c>
       <c r="D22">
-        <v>0.005043365143425405</v>
+        <v>0.02930093510974352</v>
       </c>
       <c r="E22">
-        <v>0.01243688652256569</v>
+        <v>0.0943336168456792</v>
       </c>
       <c r="F22">
-        <v>2.935554474066748</v>
+        <v>1.553866297344626</v>
       </c>
       <c r="G22">
-        <v>0.0007150046399489169</v>
+        <v>0.002418367661157329</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.02722790469088565</v>
+        <v>0.08186104157371688</v>
       </c>
       <c r="M22">
-        <v>5.921348237346962</v>
+        <v>2.188904829264374</v>
       </c>
       <c r="N22">
-        <v>6.086392946798753</v>
+        <v>2.481071957696315</v>
       </c>
       <c r="O22">
-        <v>9.724161861186815</v>
+        <v>5.440399496426608</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2000568421074291</v>
+        <v>0.296461358990399</v>
       </c>
       <c r="D23">
-        <v>0.00506058754801586</v>
+        <v>0.02948497063503375</v>
       </c>
       <c r="E23">
-        <v>0.01294063979167959</v>
+        <v>0.09507476199660481</v>
       </c>
       <c r="F23">
-        <v>2.81669568988579</v>
+        <v>1.532258739864943</v>
       </c>
       <c r="G23">
-        <v>0.0007184555595181056</v>
+        <v>0.002420283956742058</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.0275192003479745</v>
+        <v>0.08219886592309678</v>
       </c>
       <c r="M23">
-        <v>5.701462925936085</v>
+        <v>2.124702675870793</v>
       </c>
       <c r="N23">
-        <v>5.885121950172106</v>
+        <v>2.41644986278493</v>
       </c>
       <c r="O23">
-        <v>9.331203580914291</v>
+        <v>5.371871488155364</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1771362331282234</v>
+        <v>0.297303888841185</v>
       </c>
       <c r="D24">
-        <v>0.005304315800978898</v>
+        <v>0.03021482584494528</v>
       </c>
       <c r="E24">
-        <v>0.01530060316576964</v>
+        <v>0.09801175594991429</v>
       </c>
       <c r="F24">
-        <v>2.382899222472417</v>
+        <v>1.452277718071471</v>
       </c>
       <c r="G24">
-        <v>0.0007316144785068266</v>
+        <v>0.002427822362529082</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.02878129199159929</v>
+        <v>0.08355735161409328</v>
       </c>
       <c r="M24">
-        <v>4.875312572422644</v>
+        <v>1.881370177083113</v>
       </c>
       <c r="N24">
-        <v>5.127220267023802</v>
+        <v>2.171955565181918</v>
       </c>
       <c r="O24">
-        <v>7.899827446180268</v>
+        <v>5.118968797658567</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1557191356272085</v>
+        <v>0.299013095977017</v>
       </c>
       <c r="D25">
-        <v>0.005874251571626132</v>
+        <v>0.03107147770247387</v>
       </c>
       <c r="E25">
-        <v>0.0186749604260763</v>
+        <v>0.1014552064722563</v>
       </c>
       <c r="F25">
-        <v>1.942971646186933</v>
+        <v>1.369902899090064</v>
       </c>
       <c r="G25">
-        <v>0.0007460966184632545</v>
+        <v>0.002436558285892938</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.03045491634972564</v>
+        <v>0.08519181771271889</v>
       </c>
       <c r="M25">
-        <v>3.994530889495977</v>
+        <v>1.618601066279183</v>
       </c>
       <c r="N25">
-        <v>4.317250497734307</v>
+        <v>1.908899810296077</v>
       </c>
       <c r="O25">
-        <v>6.453248660716895</v>
+        <v>4.860124672401298</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_154/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_154/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.3009517224809315</v>
+        <v>0.1422020754703652</v>
       </c>
       <c r="D2">
-        <v>0.03176124224049381</v>
+        <v>0.006497013100835503</v>
       </c>
       <c r="E2">
-        <v>0.1042256271206337</v>
+        <v>0.02175374892251591</v>
       </c>
       <c r="F2">
-        <v>1.312523548925626</v>
+        <v>1.637120404627197</v>
       </c>
       <c r="G2">
-        <v>0.002443516547849659</v>
+        <v>0.0007570934150193943</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.08654123832794625</v>
+        <v>0.03193201319825079</v>
       </c>
       <c r="M2">
-        <v>1.424909482253568</v>
+        <v>3.351595170538147</v>
       </c>
       <c r="N2">
-        <v>1.715880661406516</v>
+        <v>3.7256521676413</v>
       </c>
       <c r="O2">
-        <v>4.681263349677351</v>
+        <v>5.451097728494801</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.3026857630957807</v>
+        <v>0.1341938122754982</v>
       </c>
       <c r="D3">
-        <v>0.03226518995492889</v>
+        <v>0.007021033753364492</v>
       </c>
       <c r="E3">
-        <v>0.1062488318439567</v>
+        <v>0.0241597922568495</v>
       </c>
       <c r="F3">
-        <v>1.275640392754909</v>
+        <v>1.43856974131927</v>
       </c>
       <c r="G3">
-        <v>0.002448563445509227</v>
+        <v>0.0007647907822909314</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.08754708226249974</v>
+        <v>0.03307536957954227</v>
       </c>
       <c r="M3">
-        <v>1.293531915880166</v>
+        <v>2.917983611698318</v>
       </c>
       <c r="N3">
-        <v>1.585537508725679</v>
+        <v>3.326969299905613</v>
       </c>
       <c r="O3">
-        <v>4.567228093055689</v>
+        <v>4.802414496495089</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.3039564342589927</v>
+        <v>0.1297714404984163</v>
       </c>
       <c r="D4">
-        <v>0.03259250525759683</v>
+        <v>0.007386149937714137</v>
       </c>
       <c r="E4">
-        <v>0.1075626156684795</v>
+        <v>0.02577961141304996</v>
       </c>
       <c r="F4">
-        <v>1.253970336737254</v>
+        <v>1.320229118826006</v>
       </c>
       <c r="G4">
-        <v>0.002451826644926911</v>
+        <v>0.00076964836003457</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.0882098158246869</v>
+        <v>0.03384449643995779</v>
       </c>
       <c r="M4">
-        <v>1.212821027657299</v>
+        <v>2.652404067973876</v>
       </c>
       <c r="N4">
-        <v>1.505756825956809</v>
+        <v>3.083078618692298</v>
       </c>
       <c r="O4">
-        <v>4.500710647842254</v>
+        <v>4.416617888997052</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.3045258485037436</v>
+        <v>0.1280836606635773</v>
       </c>
       <c r="D5">
-        <v>0.03273037043304505</v>
+        <v>0.007544919038727116</v>
       </c>
       <c r="E5">
-        <v>0.1081159277367525</v>
+        <v>0.02647344730614209</v>
       </c>
       <c r="F5">
-        <v>1.245383634849162</v>
+        <v>1.27280309663854</v>
       </c>
       <c r="G5">
-        <v>0.002453197902038267</v>
+        <v>0.0007716623309160206</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.08849124951990106</v>
+        <v>0.03417436589409029</v>
       </c>
       <c r="M5">
-        <v>1.179921701756399</v>
+        <v>2.544295184704552</v>
       </c>
       <c r="N5">
-        <v>1.473312265058979</v>
+        <v>2.983892127060074</v>
       </c>
       <c r="O5">
-        <v>4.474479253443064</v>
+        <v>4.262203017095771</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.3046235107406545</v>
+        <v>0.1278100349091744</v>
       </c>
       <c r="D6">
-        <v>0.03275353302463913</v>
+        <v>0.007571860114564899</v>
       </c>
       <c r="E6">
-        <v>0.1082088864720347</v>
+        <v>0.0265906381730816</v>
       </c>
       <c r="F6">
-        <v>1.243972514595285</v>
+        <v>1.264973538809542</v>
       </c>
       <c r="G6">
-        <v>0.002453428107490555</v>
+        <v>0.0007719988710625542</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.08853866814606448</v>
+        <v>0.03423012163946204</v>
       </c>
       <c r="M6">
-        <v>1.174458316800497</v>
+        <v>2.526349513658388</v>
       </c>
       <c r="N6">
-        <v>1.467929010128586</v>
+        <v>2.967433714742896</v>
       </c>
       <c r="O6">
-        <v>4.47017624552592</v>
+        <v>4.236722198267103</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.3039639048753031</v>
+        <v>0.1297482281277951</v>
       </c>
       <c r="D7">
-        <v>0.03259434643324077</v>
+        <v>0.007388251892757935</v>
       </c>
       <c r="E7">
-        <v>0.1075700052819895</v>
+        <v>0.02578883473964177</v>
       </c>
       <c r="F7">
-        <v>1.253853547413485</v>
+        <v>1.319586405940186</v>
       </c>
       <c r="G7">
-        <v>0.002451844970105421</v>
+        <v>0.0007696753797580667</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.08821356530779667</v>
+        <v>0.0338488791395406</v>
       </c>
       <c r="M7">
-        <v>1.212377369270399</v>
+        <v>2.650945661370315</v>
       </c>
       <c r="N7">
-        <v>1.505318992175035</v>
+        <v>3.081740173730452</v>
       </c>
       <c r="O7">
-        <v>4.500353346213558</v>
+        <v>4.414524489632697</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.3015067595107155</v>
+        <v>0.1393318600512004</v>
       </c>
       <c r="D8">
-        <v>0.03193128029298897</v>
+        <v>0.006668109376210651</v>
       </c>
       <c r="E8">
-        <v>0.1049083515165012</v>
+        <v>0.02255247549293937</v>
       </c>
       <c r="F8">
-        <v>1.299602680159026</v>
+        <v>1.567856895501635</v>
       </c>
       <c r="G8">
-        <v>0.002445222685382505</v>
+        <v>0.0007597211031867596</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.08687869213064658</v>
+        <v>0.0323120482157897</v>
       </c>
       <c r="M8">
-        <v>1.379621020207892</v>
+        <v>3.201917781413044</v>
       </c>
       <c r="N8">
-        <v>1.670888512148537</v>
+        <v>3.587982505312482</v>
       </c>
       <c r="O8">
-        <v>4.641214200906461</v>
+        <v>5.22462281745868</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2983311481018234</v>
+        <v>0.1625471683965145</v>
       </c>
       <c r="D9">
-        <v>0.03077370177798144</v>
+        <v>0.005647049938444226</v>
       </c>
       <c r="E9">
-        <v>0.1002586407527257</v>
+        <v>0.01743863705728455</v>
       </c>
       <c r="F9">
-        <v>1.397137411490888</v>
+        <v>2.087986800584233</v>
       </c>
       <c r="G9">
-        <v>0.002433534268498474</v>
+        <v>0.0007411717436827986</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.08461860541090616</v>
+        <v>0.02985163899614562</v>
       </c>
       <c r="M9">
-        <v>1.707151716691129</v>
+        <v>4.290155381901897</v>
       </c>
       <c r="N9">
-        <v>1.997413350700583</v>
+        <v>4.589241829502612</v>
       </c>
       <c r="O9">
-        <v>4.945477485175161</v>
+        <v>6.929474746518792</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.297011828438059</v>
+        <v>0.183066396430263</v>
       </c>
       <c r="D10">
-        <v>0.03001123383818971</v>
+        <v>0.00521072145738799</v>
       </c>
       <c r="E10">
-        <v>0.09719282262930218</v>
+        <v>0.01458869238849392</v>
       </c>
       <c r="F10">
-        <v>1.473676010358815</v>
+        <v>2.498124216506369</v>
       </c>
       <c r="G10">
-        <v>0.002425728968258126</v>
+        <v>0.0007280246381686784</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.08317534049809794</v>
+        <v>0.02841293972736381</v>
       </c>
       <c r="M10">
-        <v>1.947441446484419</v>
+        <v>5.098558306543879</v>
       </c>
       <c r="N10">
-        <v>2.238268496456499</v>
+        <v>5.332250594791958</v>
       </c>
       <c r="O10">
-        <v>5.186501659324961</v>
+        <v>8.279581920341059</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2966344735041275</v>
+        <v>0.1933486211867859</v>
       </c>
       <c r="D11">
-        <v>0.02968370105606866</v>
+        <v>0.005100603327520048</v>
       </c>
       <c r="E11">
-        <v>0.09587481267580866</v>
+        <v>0.01352841032687824</v>
       </c>
       <c r="F11">
-        <v>1.509579998797705</v>
+        <v>2.692770960807678</v>
       </c>
       <c r="G11">
-        <v>0.002422346049547026</v>
+        <v>0.0007221198614424003</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.08256577186332947</v>
+        <v>0.02784641669431309</v>
       </c>
       <c r="M11">
-        <v>2.056664510312544</v>
+        <v>5.469341458106896</v>
       </c>
       <c r="N11">
-        <v>2.348014863582193</v>
+        <v>5.67242557306929</v>
       </c>
       <c r="O11">
-        <v>5.300032853834864</v>
+        <v>8.921836868003027</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2965238381149504</v>
+        <v>0.197397249678346</v>
       </c>
       <c r="D12">
-        <v>0.02956247077993979</v>
+        <v>0.005073639091222049</v>
       </c>
       <c r="E12">
-        <v>0.09538679562003249</v>
+        <v>0.01316460700433719</v>
       </c>
       <c r="F12">
-        <v>1.523333962904474</v>
+        <v>2.767830461199026</v>
       </c>
       <c r="G12">
-        <v>0.002421089001131804</v>
+        <v>0.0007198920949567089</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.0823416885697057</v>
+        <v>0.02764527349351553</v>
       </c>
       <c r="M12">
-        <v>2.098010279931231</v>
+        <v>5.610289616043701</v>
       </c>
       <c r="N12">
-        <v>2.389595668641221</v>
+        <v>5.801604787941301</v>
       </c>
       <c r="O12">
-        <v>5.343589814317227</v>
+        <v>9.169742542462814</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2965462270790766</v>
+        <v>0.196518090103396</v>
       </c>
       <c r="D13">
-        <v>0.02958845504452512</v>
+        <v>0.005078755153064662</v>
       </c>
       <c r="E13">
-        <v>0.09549140481865859</v>
+        <v>0.01324121739885165</v>
       </c>
       <c r="F13">
-        <v>1.520364750423852</v>
+        <v>2.751601669401737</v>
       </c>
       <c r="G13">
-        <v>0.002421358664249621</v>
+        <v>0.0007203715638918758</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.08238964896779066</v>
+        <v>0.02768798529618266</v>
       </c>
       <c r="M13">
-        <v>2.089106415451994</v>
+        <v>5.579908041634212</v>
       </c>
       <c r="N13">
-        <v>2.380639567054686</v>
+        <v>5.773766772849967</v>
       </c>
       <c r="O13">
-        <v>5.334183810566117</v>
+        <v>9.116131243878556</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2966247236366826</v>
+        <v>0.1936784831014506</v>
       </c>
       <c r="D14">
-        <v>0.02967367114222341</v>
+        <v>0.005098076866392631</v>
       </c>
       <c r="E14">
-        <v>0.09583444070153835</v>
+        <v>0.01349770138783324</v>
       </c>
       <c r="F14">
-        <v>1.510708371228247</v>
+        <v>2.698917895948028</v>
       </c>
       <c r="G14">
-        <v>0.00242224215116897</v>
+        <v>0.0007219364331224108</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.08254720122075909</v>
+        <v>0.02782959572021326</v>
       </c>
       <c r="M14">
-        <v>2.060066357884466</v>
+        <v>5.480925862208665</v>
       </c>
       <c r="N14">
-        <v>2.351435316567688</v>
+        <v>5.683045660805931</v>
       </c>
       <c r="O14">
-        <v>5.303604949551982</v>
+        <v>8.942133978544234</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2966770129407195</v>
+        <v>0.1919599177532803</v>
       </c>
       <c r="D15">
-        <v>0.02972623365438487</v>
+        <v>0.00511189665817291</v>
       </c>
       <c r="E15">
-        <v>0.09604600552264619</v>
+        <v>0.01365983375772029</v>
       </c>
       <c r="F15">
-        <v>1.504814174853919</v>
+        <v>2.666829574833429</v>
       </c>
       <c r="G15">
-        <v>0.002422786432928008</v>
+        <v>0.0007228959490539853</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.08264458495294491</v>
+        <v>0.02791810280745821</v>
       </c>
       <c r="M15">
-        <v>2.042276511266351</v>
+        <v>5.420370173085502</v>
       </c>
       <c r="N15">
-        <v>2.333549658016523</v>
+        <v>5.627525105033385</v>
       </c>
       <c r="O15">
-        <v>5.28494829596832</v>
+        <v>8.836188464607915</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2970409918124517</v>
+        <v>0.1824150467800791</v>
       </c>
       <c r="D16">
-        <v>0.03003302941846542</v>
+        <v>0.005219862269747466</v>
       </c>
       <c r="E16">
-        <v>0.09728050537591226</v>
+        <v>0.0146630467185549</v>
       </c>
       <c r="F16">
-        <v>1.471351602948999</v>
+        <v>2.485581737257803</v>
       </c>
       <c r="G16">
-        <v>0.002425953414149558</v>
+        <v>0.0007284118360113556</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.08321612185823568</v>
+        <v>0.02845179463370684</v>
       </c>
       <c r="M16">
-        <v>1.940301537803919</v>
+        <v>5.074396404691925</v>
       </c>
       <c r="N16">
-        <v>2.231099623502757</v>
+        <v>5.31006725299136</v>
       </c>
       <c r="O16">
-        <v>5.179160883265524</v>
+        <v>8.238228575963262</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2973215045507658</v>
+        <v>0.176814934277985</v>
       </c>
       <c r="D17">
-        <v>0.03022620151733335</v>
+        <v>0.005310074088543004</v>
       </c>
       <c r="E17">
-        <v>0.09805750667384006</v>
+        <v>0.01534150340498908</v>
       </c>
       <c r="F17">
-        <v>1.451102809326827</v>
+        <v>2.376587446238076</v>
       </c>
       <c r="G17">
-        <v>0.002427939124906749</v>
+        <v>0.0007318132994555301</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.08357876770572048</v>
+        <v>0.02880222620833095</v>
       </c>
       <c r="M17">
-        <v>1.877719554253787</v>
+        <v>4.862999769937744</v>
       </c>
       <c r="N17">
-        <v>2.168293358642188</v>
+        <v>5.115908037429051</v>
       </c>
       <c r="O17">
-        <v>5.115263852230669</v>
+        <v>7.879035143007854</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2975038066678906</v>
+        <v>0.1736818768294057</v>
       </c>
       <c r="D18">
-        <v>0.03033912596727539</v>
+        <v>0.005370140622167341</v>
       </c>
       <c r="E18">
-        <v>0.09851162775894062</v>
+        <v>0.0157537155217975</v>
       </c>
       <c r="F18">
-        <v>1.43955837325413</v>
+        <v>2.314643961073273</v>
       </c>
       <c r="G18">
-        <v>0.002429097050901593</v>
+        <v>0.0007337770546541536</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.08379177445365471</v>
+        <v>0.0290120147995232</v>
       </c>
       <c r="M18">
-        <v>1.841716097674691</v>
+        <v>4.741688779696446</v>
       </c>
       <c r="N18">
-        <v>2.132186028664592</v>
+        <v>5.00443439539464</v>
       </c>
       <c r="O18">
-        <v>5.07887756864767</v>
+        <v>7.675035825331975</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2975691239988691</v>
+        <v>0.1726356560807289</v>
       </c>
       <c r="D19">
-        <v>0.03037767166581951</v>
+        <v>0.00539182619649381</v>
       </c>
       <c r="E19">
-        <v>0.09866662184936414</v>
+        <v>0.01589695178222872</v>
       </c>
       <c r="F19">
-        <v>1.435667115500863</v>
+        <v>2.293793887771685</v>
       </c>
       <c r="G19">
-        <v>0.002429491821831295</v>
+        <v>0.0007344432821924308</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.08386465470322335</v>
+        <v>0.02908443771889324</v>
       </c>
       <c r="M19">
-        <v>1.829524649500655</v>
+        <v>4.700659914727979</v>
       </c>
       <c r="N19">
-        <v>2.1199637692539</v>
+        <v>4.966724545088368</v>
       </c>
       <c r="O19">
-        <v>5.066620406709774</v>
+        <v>7.60639287765224</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2972894727617899</v>
+        <v>0.1774018424113279</v>
       </c>
       <c r="D20">
-        <v>0.03020544981398565</v>
+        <v>0.0052996107058636</v>
       </c>
       <c r="E20">
-        <v>0.09797404684582256</v>
+        <v>0.01526697977258618</v>
       </c>
       <c r="F20">
-        <v>1.453247745134462</v>
+        <v>2.388111448879755</v>
       </c>
       <c r="G20">
-        <v>0.002427726108705832</v>
+        <v>0.0007314504681238327</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.0835397057929228</v>
+        <v>0.02876406531356679</v>
       </c>
       <c r="M20">
-        <v>1.884382353119918</v>
+        <v>4.885473746515686</v>
       </c>
       <c r="N20">
-        <v>2.174977442232091</v>
+        <v>5.136555411960842</v>
       </c>
       <c r="O20">
-        <v>5.122027918551339</v>
+        <v>7.916998383400994</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2966007899762531</v>
+        <v>0.194508178140623</v>
       </c>
       <c r="D21">
-        <v>0.02964856496435786</v>
+        <v>0.005091983913811049</v>
       </c>
       <c r="E21">
-        <v>0.09573338140600107</v>
+        <v>0.01342131057294083</v>
       </c>
       <c r="F21">
-        <v>1.513540384705351</v>
+        <v>2.714354090735668</v>
       </c>
       <c r="G21">
-        <v>0.002421981999780416</v>
+        <v>0.0007214765923942282</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.08250074125545126</v>
+        <v>0.02778763171551191</v>
       </c>
       <c r="M21">
-        <v>2.068596541891282</v>
+        <v>5.509983749662609</v>
       </c>
       <c r="N21">
-        <v>2.360012738277874</v>
+        <v>5.70968239620845</v>
       </c>
       <c r="O21">
-        <v>5.312571315306798</v>
+        <v>8.993108007814783</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2963388403708365</v>
+        <v>0.2066018923236612</v>
       </c>
       <c r="D22">
-        <v>0.02930093510974352</v>
+        <v>0.005043365143434286</v>
       </c>
       <c r="E22">
-        <v>0.0943336168456792</v>
+        <v>0.01243688652262698</v>
       </c>
       <c r="F22">
-        <v>1.553866297344626</v>
+        <v>2.935554474066748</v>
       </c>
       <c r="G22">
-        <v>0.002418367661157329</v>
+        <v>0.0007150046400082087</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.08186104157371688</v>
+        <v>0.02722790469088565</v>
       </c>
       <c r="M22">
-        <v>2.188904829264374</v>
+        <v>5.921348237347019</v>
       </c>
       <c r="N22">
-        <v>2.481071957696315</v>
+        <v>6.086392946798753</v>
       </c>
       <c r="O22">
-        <v>5.440399496426608</v>
+        <v>9.724161861186815</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.296461358990399</v>
+        <v>0.2000568421074007</v>
       </c>
       <c r="D23">
-        <v>0.02948497063503375</v>
+        <v>0.005060587547907502</v>
       </c>
       <c r="E23">
-        <v>0.09507476199660481</v>
+        <v>0.0129406397917089</v>
       </c>
       <c r="F23">
-        <v>1.532258739864943</v>
+        <v>2.81669568988579</v>
       </c>
       <c r="G23">
-        <v>0.002420283956742058</v>
+        <v>0.0007184555595209987</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.08219886592309678</v>
+        <v>0.02751920034796385</v>
       </c>
       <c r="M23">
-        <v>2.124702675870793</v>
+        <v>5.701462925936113</v>
       </c>
       <c r="N23">
-        <v>2.41644986278493</v>
+        <v>5.885121950172106</v>
       </c>
       <c r="O23">
-        <v>5.371871488155364</v>
+        <v>9.331203580914291</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.297303888841185</v>
+        <v>0.1771362331279676</v>
       </c>
       <c r="D24">
-        <v>0.03021482584494528</v>
+        <v>0.005304315800970016</v>
       </c>
       <c r="E24">
-        <v>0.09801175594991429</v>
+        <v>0.0153006031658105</v>
       </c>
       <c r="F24">
-        <v>1.452277718071471</v>
+        <v>2.382899222472417</v>
       </c>
       <c r="G24">
-        <v>0.002427822362529082</v>
+        <v>0.0007316144785617204</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.08355735161409328</v>
+        <v>0.02878129199158863</v>
       </c>
       <c r="M24">
-        <v>1.881370177083113</v>
+        <v>4.875312572422672</v>
       </c>
       <c r="N24">
-        <v>2.171955565181918</v>
+        <v>5.127220267023802</v>
       </c>
       <c r="O24">
-        <v>5.118968797658567</v>
+        <v>7.899827446180268</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.299013095977017</v>
+        <v>0.1557191356276491</v>
       </c>
       <c r="D25">
-        <v>0.03107147770247387</v>
+        <v>0.005874251571414746</v>
       </c>
       <c r="E25">
-        <v>0.1014552064722563</v>
+        <v>0.01867496042607808</v>
       </c>
       <c r="F25">
-        <v>1.369902899090064</v>
+        <v>1.942971646186933</v>
       </c>
       <c r="G25">
-        <v>0.002436558285892938</v>
+        <v>0.0007460966184079398</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.08519181771271889</v>
+        <v>0.03045491634968656</v>
       </c>
       <c r="M25">
-        <v>1.618601066279183</v>
+        <v>3.994530889495991</v>
       </c>
       <c r="N25">
-        <v>1.908899810296077</v>
+        <v>4.317250497734335</v>
       </c>
       <c r="O25">
-        <v>4.860124672401298</v>
+        <v>6.453248660716895</v>
       </c>
     </row>
   </sheetData>
